--- a/machine_learning_and_stats/misc/bayes_experiment.xlsx
+++ b/machine_learning_and_stats/misc/bayes_experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C85813-DFA1-4309-9F66-87065C1C1A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDFFE5-F887-4DEB-8D0C-455FF9FDB76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1344" yWindow="1416" windowWidth="21696" windowHeight="12984" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>成功</t>
     <rPh sb="0" eb="2">
@@ -1887,6 +1887,962 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5000000000000015E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6299999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3199999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0699999999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8799999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6800000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6700000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13230000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14520000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15870000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17280000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18750000000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20280000000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21870000000000012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23520000000000013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25230000000000014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28830000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30720000000000025</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32670000000000021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34680000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36750000000000027</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38880000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4107000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43320000000000042</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45630000000000048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50430000000000053</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.52920000000000056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55470000000000053</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58080000000000054</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6075000000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6348000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66270000000000073</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6912000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.72030000000000083</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.75000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.78030000000000066</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81120000000000081</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84270000000000078</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.87480000000000091</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.90750000000000086</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.94080000000000097</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9747000000000009</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0092000000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0443000000000011</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0800000000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1163000000000012</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1532000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1907000000000012</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2288000000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2675000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3068000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3467000000000016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3872000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4283000000000015</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4700000000000015</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5123000000000015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5552000000000019</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5987000000000018</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.642800000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7328000000000019</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7787000000000024</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8252000000000022</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8723000000000023</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9683000000000024</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0172000000000025</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0667000000000026</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1168000000000027</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1675000000000026</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2188000000000025</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2707000000000028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.323200000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.3763000000000032</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.4300000000000033</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4843000000000033</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5392000000000032</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5947000000000031</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6508000000000034</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7075000000000036</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.7648000000000037</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.8227000000000038</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8812000000000038</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9403000000000041</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83D8-4441-B682-07ACAF6B6490}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1835117984"/>
+        <c:axId val="1835107424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1835117984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>成功率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835107424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1835107424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835117984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1967,6 +2923,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2471,6 +3467,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3026,16 +4538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>379094</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:rowOff>43814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449579</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327659</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3055,6 +4567,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308610</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24766</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3C6B73-24AE-4D34-9421-F762FE65D11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3173,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
@@ -3184,12 +4734,15 @@
     <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3197,8 +4750,12 @@
         <f>A2*2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>A2^2*3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <f>A2+0.01</f>
         <v>0.01</v>
@@ -3207,995 +4764,1395 @@
         <f t="shared" ref="B3:B66" si="0">A3*2</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">A3^2*3</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="1">A3+0.01</f>
+        <f t="shared" ref="A4:A67" si="2">A3+0.01</f>
         <v>0.02</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000015E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0.12000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.4700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0.19999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0.21999999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.6299999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0.23999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>4.3199999999999988E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0.25999999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>5.0699999999999981E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>0.27999999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>5.8799999999999991E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>8.6700000000000013E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>0.36000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>9.7200000000000009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>0.38000000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.10830000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>0.40000000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21000000000000005</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>0.4200000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.13230000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22000000000000006</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>0.44000000000000011</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.14520000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23000000000000007</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
         <v>0.46000000000000013</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.15870000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0.48000000000000015</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.17280000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25000000000000006</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.18750000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26000000000000006</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
         <v>0.52000000000000013</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.20280000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27000000000000007</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
         <v>0.54000000000000015</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.21870000000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000008</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
         <v>0.56000000000000016</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.23520000000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29000000000000009</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>0.58000000000000018</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.25230000000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3000000000000001</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>0.6000000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31000000000000011</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>0.62000000000000022</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.28830000000000022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32000000000000012</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>0.64000000000000024</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.30720000000000025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33000000000000013</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0.66000000000000025</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.32670000000000021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34000000000000014</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0.68000000000000027</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.34680000000000027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35000000000000014</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>0.70000000000000029</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.36750000000000027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36000000000000015</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>0.72000000000000031</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.38880000000000031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37000000000000016</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>0.74000000000000032</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.4107000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38000000000000017</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>0.76000000000000034</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.43320000000000042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39000000000000018</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>0.78000000000000036</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.45630000000000048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40000000000000019</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>0.80000000000000038</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4100000000000002</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>0.8200000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.50430000000000053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42000000000000021</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0.84000000000000041</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.52920000000000056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43000000000000022</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0.86000000000000043</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.55470000000000053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44000000000000022</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>0.88000000000000045</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.58080000000000054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45000000000000023</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>0.90000000000000047</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.6075000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46000000000000024</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
         <v>0.92000000000000048</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.6348000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47000000000000025</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>0.9400000000000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.66270000000000073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48000000000000026</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
         <v>0.96000000000000052</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.6912000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49000000000000027</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
         <v>0.98000000000000054</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.72030000000000083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51000000000000023</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
         <v>1.0200000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.78030000000000066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52000000000000024</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
         <v>1.0400000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.81120000000000081</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53000000000000025</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
         <v>1.0600000000000005</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.84270000000000078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54000000000000026</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
         <v>1.0800000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.87480000000000091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55000000000000027</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
         <v>1.1000000000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.90750000000000086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
         <v>1.1200000000000006</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.94080000000000097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
         <v>1.1400000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.9747000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58000000000000029</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
         <v>1.1600000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>1.0092000000000012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5900000000000003</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
         <v>1.1800000000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>1.0443000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60000000000000031</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
         <v>1.2000000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>1.0800000000000012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
         <v>1.2200000000000006</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>1.1163000000000012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62000000000000033</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
         <v>1.2400000000000007</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>1.1532000000000013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63000000000000034</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
         <v>1.2600000000000007</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>1.1907000000000012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.64000000000000035</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
         <v>1.2800000000000007</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>1.2288000000000014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65000000000000036</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="2">A67*2</f>
+        <f t="shared" ref="B67:B102" si="3">A67*2</f>
         <v>1.3000000000000007</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <f t="shared" ref="C67:C102" si="4">A67^2*3</f>
+        <v>1.2675000000000014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
-        <f t="shared" ref="A68:A102" si="3">A67+0.01</f>
+        <f t="shared" ref="A68:A102" si="5">A67+0.01</f>
         <v>0.66000000000000036</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3200000000000007</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>1.3068000000000015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
+        <f t="shared" si="5"/>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="3"/>
-        <v>0.67000000000000037</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
         <v>1.3400000000000007</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>1.3467000000000016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
+        <f t="shared" si="5"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="3"/>
-        <v>0.68000000000000038</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
         <v>1.3600000000000008</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>1.3872000000000015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
+        <f t="shared" si="5"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="3"/>
-        <v>0.69000000000000039</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
         <v>1.3800000000000008</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>1.4283000000000015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
+        <f t="shared" si="5"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="3"/>
-        <v>0.7000000000000004</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
         <v>1.4000000000000008</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>1.4700000000000015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="3"/>
-        <v>0.71000000000000041</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
         <v>1.4200000000000008</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>1.5123000000000015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
+        <f t="shared" si="5"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="3"/>
-        <v>0.72000000000000042</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
         <v>1.4400000000000008</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>1.5552000000000019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
+        <f t="shared" si="5"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="3"/>
-        <v>0.73000000000000043</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
         <v>1.4600000000000009</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>1.5987000000000018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
+        <f t="shared" si="5"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="3"/>
-        <v>0.74000000000000044</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
         <v>1.4800000000000009</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>1.642800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="3"/>
-        <v>0.75000000000000044</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
         <v>1.5000000000000009</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>1.687500000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
+        <f t="shared" si="5"/>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="3"/>
-        <v>0.76000000000000045</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
         <v>1.5200000000000009</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>1.7328000000000019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
+        <f t="shared" si="5"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="3"/>
-        <v>0.77000000000000046</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
         <v>1.5400000000000009</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>1.7787000000000024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
+        <f t="shared" si="5"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="3"/>
-        <v>0.78000000000000047</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
         <v>1.5600000000000009</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>1.8252000000000022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
+        <f t="shared" si="5"/>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="3"/>
-        <v>0.79000000000000048</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
         <v>1.580000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>1.8723000000000023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
+        <f t="shared" si="5"/>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="3"/>
-        <v>0.80000000000000049</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
         <v>1.600000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>1.9200000000000024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
+        <f t="shared" si="5"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="3"/>
-        <v>0.8100000000000005</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
         <v>1.620000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>1.9683000000000024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
+        <f t="shared" si="5"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="3"/>
-        <v>0.82000000000000051</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
         <v>1.640000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>2.0172000000000025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
+        <f t="shared" si="5"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="3"/>
-        <v>0.83000000000000052</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
         <v>1.660000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>2.0667000000000026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="3"/>
-        <v>0.84000000000000052</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
         <v>1.680000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>2.1168000000000027</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="3"/>
-        <v>0.85000000000000053</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
         <v>1.7000000000000011</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>2.1675000000000026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
+        <f t="shared" si="5"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="3"/>
-        <v>0.86000000000000054</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
         <v>1.7200000000000011</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>2.2188000000000025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
+        <f t="shared" si="5"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="3"/>
-        <v>0.87000000000000055</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
         <v>1.7400000000000011</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>2.2707000000000028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
+        <f t="shared" si="5"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="3"/>
-        <v>0.88000000000000056</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
         <v>1.7600000000000011</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>2.323200000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
+        <f t="shared" si="5"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="3"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
         <v>1.7800000000000011</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>2.3763000000000032</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B92">
         <f t="shared" si="3"/>
-        <v>0.90000000000000058</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
         <v>1.8000000000000012</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>2.4300000000000033</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
+        <f t="shared" si="5"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="B93">
         <f t="shared" si="3"/>
-        <v>0.91000000000000059</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
         <v>1.8200000000000012</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>2.4843000000000033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
+        <f t="shared" si="5"/>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="3"/>
-        <v>0.9200000000000006</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
         <v>1.8400000000000012</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>2.5392000000000032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
+        <f t="shared" si="5"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="B95">
         <f t="shared" si="3"/>
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
         <v>1.8600000000000012</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>2.5947000000000031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="B96">
         <f t="shared" si="3"/>
-        <v>0.94000000000000061</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
         <v>1.8800000000000012</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>2.6508000000000034</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="B97">
         <f t="shared" si="3"/>
-        <v>0.95000000000000062</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
         <v>1.9000000000000012</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>2.7075000000000036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="B98">
         <f t="shared" si="3"/>
-        <v>0.96000000000000063</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="2"/>
         <v>1.9200000000000013</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>2.7648000000000037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
+        <f t="shared" si="5"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="B99">
         <f t="shared" si="3"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="2"/>
         <v>1.9400000000000013</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>2.8227000000000038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="B100">
         <f t="shared" si="3"/>
-        <v>0.98000000000000065</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="2"/>
         <v>1.9600000000000013</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>2.8812000000000038</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="B101">
         <f t="shared" si="3"/>
-        <v>0.99000000000000066</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="2"/>
         <v>1.9800000000000013</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>2.9403000000000041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B102">
         <f t="shared" si="3"/>
-        <v>1.0000000000000007</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="2"/>
         <v>2.0000000000000013</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>3.000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/machine_learning_and_stats/misc/bayes_experiment.xlsx
+++ b/machine_learning_and_stats/misc/bayes_experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFDFFE5-F887-4DEB-8D0C-455FF9FDB76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BF3F8-5736-4B25-AE73-BC7234F73182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="1416" windowWidth="21696" windowHeight="12984" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>成功</t>
     <rPh sb="0" eb="2">
       <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,837 +109,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.10999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.23000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.29000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.31000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.33000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.34000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.35000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.36000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.37000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.39000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.40000000000000019</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.4100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.42000000000000021</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.43000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.45000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.47000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.48000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.50000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51000000000000023</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.52000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.53000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.54000000000000026</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.55000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.56000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.57000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.58000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.5900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.60000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.62000000000000033</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.63000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64000000000000035</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.67000000000000037</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68000000000000038</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.69000000000000039</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.7000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.71000000000000041</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72000000000000042</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.73000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.74000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.75000000000000044</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.76000000000000045</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.77000000000000046</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.78000000000000047</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.79000000000000048</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.80000000000000049</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.8100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.82000000000000051</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.83000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.84000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.85000000000000053</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.86000000000000054</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.87000000000000055</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.88000000000000056</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.89000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.90000000000000058</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.91000000000000059</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.9200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9300000000000006</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.94000000000000061</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.95000000000000062</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.96000000000000063</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.97000000000000064</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98000000000000065</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.99000000000000066</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.0000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.25999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.40000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.4200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.44000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.46000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.48000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.50000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.52000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.54000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.56000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.58000000000000018</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.6000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.62000000000000022</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.64000000000000024</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.66000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.68000000000000027</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.70000000000000029</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.72000000000000031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.74000000000000032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.76000000000000034</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.78000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.80000000000000038</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.8200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.84000000000000041</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.86000000000000043</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.88000000000000045</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.90000000000000047</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.92000000000000048</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.96000000000000052</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.98000000000000054</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.0400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.0800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.1000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1600000000000006</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.1800000000000006</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.2400000000000007</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2600000000000007</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2800000000000007</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3200000000000007</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.3400000000000007</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.3600000000000008</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.4200000000000008</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.4400000000000008</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.4600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.4800000000000009</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.5000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5200000000000009</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.5400000000000009</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.5600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.7200000000000011</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.7400000000000011</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.7600000000000011</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.7800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.8200000000000012</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.8400000000000012</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.8600000000000012</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.8800000000000012</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.9000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.9200000000000013</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.9400000000000013</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.9600000000000013</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.9800000000000013</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.0000000000000013</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33FF-409D-8829-4E6C7B09C831}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-27"/>
-        <c:axId val="489279679"/>
-        <c:axId val="489280159"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="489279679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489280159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="10"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="489280159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8.0000000000000016E-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="489279679"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1887,7 +1063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2550,6 +1726,2509 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-83D8-4441-B682-07ACAF6B6490}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1835117984"/>
+        <c:axId val="1835107424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1835117984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>成功率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835107424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1835107424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835117984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.188E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7039999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0475999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8432E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0608000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4684000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.065600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8452000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12922799999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15206399999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17643599999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20227199999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.258048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28784400000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31881599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35089200000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38400000000000012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41806800000000022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4530240000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48879600000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52531200000000022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56250000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60028800000000038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63860400000000028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67737600000000031</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71653200000000039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75600000000000045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79570800000000053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83558400000000055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87555600000000045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91555200000000059</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95550000000000068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99532800000000066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0349640000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0743360000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1133720000000009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1520000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1901480000000009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2277440000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2647160000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3009920000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3365000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3711680000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4049240000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.437696000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4694120000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5293880000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5575040000000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5842760000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6096320000000008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6335000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6558080000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6764840000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6954560000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7126520000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7280000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7414280000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7528640000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7622360000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7694720000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7745000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7772480000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.777644</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7756159999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7710919999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7542679999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7418239999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7265959999999991</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7085119999999989</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6874999999999991</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6634879999999987</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6364039999999989</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6061759999999987</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5727319999999985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.535999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4959079999999978</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4523839999999975</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4053559999999974</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3547519999999973</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3004999999999969</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2425279999999967</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1807639999999964</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1151359999999961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0455719999999959</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97199999999999576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89434799999999526</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.81254399999999494</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.72651599999999461</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.63619199999999432</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.54149999999999399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4423679999999936</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33872399999999325</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23049599999999282</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.11761199999999243</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.9936057773011381E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B907-45E8-A98A-D418CF0F5D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.188E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7039999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0475999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8432E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0608000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4684000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.065600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8452000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12922799999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15206399999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17643599999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20227199999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.258048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28784400000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31881599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35089200000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38400000000000012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41806800000000022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4530240000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48879600000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52531200000000022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56250000000000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60028800000000038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63860400000000028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67737600000000031</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71653200000000039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75600000000000045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79570800000000053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83558400000000055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87555600000000045</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91555200000000059</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95550000000000068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99532800000000066</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0349640000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0743360000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1133720000000009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1520000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1901480000000009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2277440000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2647160000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3009920000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3365000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3711680000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4049240000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.437696000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4694120000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5293880000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5575040000000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5842760000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6096320000000008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6335000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6558080000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6764840000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6954560000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7126520000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7280000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7414280000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7528640000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7622360000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7694720000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7745000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7772480000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.777644</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7756159999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7710919999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7542679999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7418239999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7265959999999991</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7085119999999989</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6874999999999991</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6634879999999987</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6364039999999989</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6061759999999987</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5727319999999985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.535999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4959079999999978</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4523839999999975</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4053559999999974</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3547519999999973</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3004999999999969</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2425279999999967</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1807639999999964</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1151359999999961</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0455719999999959</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97199999999999576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89434799999999526</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.81254399999999494</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.72651599999999461</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.63619199999999432</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.54149999999999399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4423679999999936</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33872399999999325</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23049599999999282</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.11761199999999243</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.9936057773011381E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B907-45E8-A98A-D418CF0F5D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1835117984"/>
+        <c:axId val="1835107424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1835117984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>成功率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835107424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1835107424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1835117984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9403000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.15248E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5404299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.42368E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7687500000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5428800000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12714030000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16250880000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2012283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28753229999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33454079999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38374829999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43488479999999985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48768749999999988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54190079999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59727630000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65357280000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71055630000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82568430000000026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8833968000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94093230000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99809280000000045</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0546875000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1105328000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1654523000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2192768000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2718443000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3230000000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.372596300000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4204928000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4665563000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5106608000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5526875000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5925248000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6300683000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6652208000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.697892300000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7280000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7554683000000009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7802288000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8022203000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8213888000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8376875000000008</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8510768000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8615243000000008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8690048000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8735003000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8735002999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8690047999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8615242999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8510768</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8376874999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8213887999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8022202999999992</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7802287999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7554682999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7279999999999991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6978922999999992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6652207999999988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6300682999999987</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5925247999999987</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5526874999999987</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5106607999999986</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4665562999999984</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4204927999999983</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3725962999999979</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.322999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2718442999999977</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2192767999999978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1654522999999977</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1105327999999977</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0546874999999976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99809279999999734</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.94093229999999739</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.88339679999999721</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.82568429999999726</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.76799999999999724</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.71055629999999714</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.65357279999999718</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.5972762999999971</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.54190079999999707</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48768749999999716</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.43488479999999718</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38374829999999721</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.33454079999999731</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.28753229999999741</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.2429999999999975</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.20122829999999761</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16250879999999779</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.12714029999999799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.5428799999998176E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.7687499999998416E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4236799999998667E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.540429999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1524799999999268E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9402999999996174E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3312027775604594E-29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53EE-459E-AE70-FC45CF0E0B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2964,7 +4643,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2991,8 +4670,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3093,7 +4772,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3125,10 +4804,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3168,22 +4847,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3288,8 +4968,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3421,19 +5101,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3447,6 +5128,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4500,42 +6192,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>206374</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FF91C5-80E5-B6B4-E648-E905BA006821}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4566,7 +6222,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4604,7 +6260,83 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457835</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32478AB2-72F5-48F1-9EEA-7E13E0D103DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>84456</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDD24AE-A1FC-4AED-8BC2-5DD8A8C2B5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4723,26 +6455,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4754,8 +6492,16 @@
         <f>A2^2*3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>A2^2*(1-A2)*12</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>A2^2*(1-A2)^2*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <f>A2+0.01</f>
         <v>0.01</v>
@@ -4768,10 +6514,18 @@
         <f t="shared" ref="C3:C66" si="1">A3^2*3</f>
         <v>3.0000000000000003E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">A3^2*(1-A3)*12</f>
+        <v>1.188E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">A3^2*(1-A3)^2*30</f>
+        <v>2.9403000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">A3+0.01</f>
+        <f t="shared" ref="A4:A67" si="4">A3+0.01</f>
         <v>0.02</v>
       </c>
       <c r="B4">
@@ -4782,10 +6536,18 @@
         <f t="shared" si="1"/>
         <v>1.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>4.7039999999999998E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1.15248E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="B5">
@@ -4796,10 +6558,18 @@
         <f t="shared" si="1"/>
         <v>2.7000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1.0475999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2.5404299999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="B6">
@@ -4810,10 +6580,18 @@
         <f t="shared" si="1"/>
         <v>4.8000000000000004E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.8432E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>4.42368E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="B7">
@@ -4824,10 +6602,18 @@
         <f t="shared" si="1"/>
         <v>7.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2.8500000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>6.7687500000000012E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="B8">
@@ -4838,10 +6624,18 @@
         <f t="shared" si="1"/>
         <v>1.0800000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>4.0608000000000005E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>9.5428800000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
@@ -4852,10 +6646,18 @@
         <f t="shared" si="1"/>
         <v>1.4700000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>5.4684000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.12714030000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
       <c r="B10">
@@ -4866,10 +6668,18 @@
         <f t="shared" si="1"/>
         <v>1.9200000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>7.065600000000001E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.16250880000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.09</v>
       </c>
       <c r="B11">
@@ -4880,10 +6690,18 @@
         <f t="shared" si="1"/>
         <v>2.4299999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>8.8452000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.2012283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="B12">
@@ -4894,10 +6712,18 @@
         <f t="shared" si="1"/>
         <v>2.9999999999999995E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="B13">
@@ -4908,10 +6734,18 @@
         <f t="shared" si="1"/>
         <v>3.6299999999999992E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.12922799999999998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.28753229999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="B14">
@@ -4922,10 +6756,18 @@
         <f t="shared" si="1"/>
         <v>4.3199999999999988E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.15206399999999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.33454079999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="B15">
@@ -4936,10 +6778,18 @@
         <f t="shared" si="1"/>
         <v>5.0699999999999981E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.17643599999999995</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0.38374829999999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="B16">
@@ -4950,10 +6800,18 @@
         <f t="shared" si="1"/>
         <v>5.8799999999999991E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.20227199999999995</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0.43488479999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B17">
@@ -4964,10 +6822,18 @@
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.22949999999999998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.48768749999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
       <c r="B18">
@@ -4978,10 +6844,18 @@
         <f t="shared" si="1"/>
         <v>7.6800000000000007E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.258048</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.54190079999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17</v>
       </c>
       <c r="B19">
@@ -4992,10 +6866,18 @@
         <f t="shared" si="1"/>
         <v>8.6700000000000013E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.28784400000000004</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.59727630000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="B20">
@@ -5006,10 +6888,18 @@
         <f t="shared" si="1"/>
         <v>9.7200000000000009E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.31881599999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.65357280000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="B21">
@@ -5020,10 +6910,18 @@
         <f t="shared" si="1"/>
         <v>0.10830000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.35089200000000009</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.71055630000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="B22">
@@ -5034,10 +6932,18 @@
         <f t="shared" si="1"/>
         <v>0.12000000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.38400000000000012</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.76800000000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21000000000000005</v>
       </c>
       <c r="B23">
@@ -5048,10 +6954,18 @@
         <f t="shared" si="1"/>
         <v>0.13230000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.41806800000000022</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.82568430000000026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22000000000000006</v>
       </c>
       <c r="B24">
@@ -5062,10 +6976,18 @@
         <f t="shared" si="1"/>
         <v>0.14520000000000008</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.4530240000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.8833968000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23000000000000007</v>
       </c>
       <c r="B25">
@@ -5076,10 +6998,18 @@
         <f t="shared" si="1"/>
         <v>0.15870000000000009</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.48879600000000023</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.94093230000000028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="B26">
@@ -5090,10 +7020,18 @@
         <f t="shared" si="1"/>
         <v>0.17280000000000009</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.52531200000000022</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.99809280000000045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25000000000000006</v>
       </c>
       <c r="B27">
@@ -5104,10 +7042,18 @@
         <f t="shared" si="1"/>
         <v>0.18750000000000008</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.56250000000000022</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1.0546875000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26000000000000006</v>
       </c>
       <c r="B28">
@@ -5118,10 +7064,18 @@
         <f t="shared" si="1"/>
         <v>0.20280000000000009</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.60028800000000038</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>1.1105328000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27000000000000007</v>
       </c>
       <c r="B29">
@@ -5132,10 +7086,18 @@
         <f t="shared" si="1"/>
         <v>0.21870000000000012</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.63860400000000028</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>1.1654523000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000008</v>
       </c>
       <c r="B30">
@@ -5146,10 +7108,18 @@
         <f t="shared" si="1"/>
         <v>0.23520000000000013</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.67737600000000031</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1.2192768000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29000000000000009</v>
       </c>
       <c r="B31">
@@ -5160,10 +7130,18 @@
         <f t="shared" si="1"/>
         <v>0.25230000000000014</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.71653200000000039</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>1.2718443000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3000000000000001</v>
       </c>
       <c r="B32">
@@ -5174,10 +7152,18 @@
         <f t="shared" si="1"/>
         <v>0.27000000000000018</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.75600000000000045</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>1.3230000000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31000000000000011</v>
       </c>
       <c r="B33">
@@ -5188,10 +7174,18 @@
         <f t="shared" si="1"/>
         <v>0.28830000000000022</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.79570800000000053</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>1.372596300000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32000000000000012</v>
       </c>
       <c r="B34">
@@ -5202,10 +7196,18 @@
         <f t="shared" si="1"/>
         <v>0.30720000000000025</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.83558400000000055</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1.4204928000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33000000000000013</v>
       </c>
       <c r="B35">
@@ -5216,10 +7218,18 @@
         <f t="shared" si="1"/>
         <v>0.32670000000000021</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.87555600000000045</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1.4665563000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34000000000000014</v>
       </c>
       <c r="B36">
@@ -5230,10 +7240,18 @@
         <f t="shared" si="1"/>
         <v>0.34680000000000027</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.91555200000000059</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>1.5106608000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35000000000000014</v>
       </c>
       <c r="B37">
@@ -5244,10 +7262,18 @@
         <f t="shared" si="1"/>
         <v>0.36750000000000027</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.95550000000000068</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1.5526875000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36000000000000015</v>
       </c>
       <c r="B38">
@@ -5258,10 +7284,18 @@
         <f t="shared" si="1"/>
         <v>0.38880000000000031</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.99532800000000066</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>1.5925248000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37000000000000016</v>
       </c>
       <c r="B39">
@@ -5272,10 +7306,18 @@
         <f t="shared" si="1"/>
         <v>0.4107000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>1.0349640000000009</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1.6300683000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38000000000000017</v>
       </c>
       <c r="B40">
@@ -5286,10 +7328,18 @@
         <f t="shared" si="1"/>
         <v>0.43320000000000042</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>1.0743360000000008</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>1.6652208000000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39000000000000018</v>
       </c>
       <c r="B41">
@@ -5300,10 +7350,18 @@
         <f t="shared" si="1"/>
         <v>0.45630000000000048</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>1.1133720000000009</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1.697892300000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000019</v>
       </c>
       <c r="B42">
@@ -5314,10 +7372,18 @@
         <f t="shared" si="1"/>
         <v>0.48000000000000043</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000006</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>1.7280000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4100000000000002</v>
       </c>
       <c r="B43">
@@ -5328,10 +7394,18 @@
         <f t="shared" si="1"/>
         <v>0.50430000000000053</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>1.1901480000000009</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>1.7554683000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42000000000000021</v>
       </c>
       <c r="B44">
@@ -5342,10 +7416,18 @@
         <f t="shared" si="1"/>
         <v>0.52920000000000056</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>1.2277440000000008</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1.7802288000000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.43000000000000022</v>
       </c>
       <c r="B45">
@@ -5356,10 +7438,18 @@
         <f t="shared" si="1"/>
         <v>0.55470000000000053</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>1.2647160000000008</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>1.8022203000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.44000000000000022</v>
       </c>
       <c r="B46">
@@ -5370,10 +7460,18 @@
         <f t="shared" si="1"/>
         <v>0.58080000000000054</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>1.3009920000000008</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1.8213888000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.45000000000000023</v>
       </c>
       <c r="B47">
@@ -5384,10 +7482,18 @@
         <f t="shared" si="1"/>
         <v>0.6075000000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>1.3365000000000009</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>1.8376875000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.46000000000000024</v>
       </c>
       <c r="B48">
@@ -5398,10 +7504,18 @@
         <f t="shared" si="1"/>
         <v>0.6348000000000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>1.3711680000000011</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>1.8510768000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47000000000000025</v>
       </c>
       <c r="B49">
@@ -5412,10 +7526,18 @@
         <f t="shared" si="1"/>
         <v>0.66270000000000073</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>1.4049240000000009</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1.8615243000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48000000000000026</v>
       </c>
       <c r="B50">
@@ -5426,10 +7548,18 @@
         <f t="shared" si="1"/>
         <v>0.6912000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>1.437696000000001</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1.8690048000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49000000000000027</v>
       </c>
       <c r="B51">
@@ -5440,10 +7570,18 @@
         <f t="shared" si="1"/>
         <v>0.72030000000000083</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1.4694120000000008</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1.8735003000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="B52">
@@ -5454,10 +7592,18 @@
         <f t="shared" si="1"/>
         <v>0.75000000000000067</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000007</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51000000000000023</v>
       </c>
       <c r="B53">
@@ -5468,10 +7614,18 @@
         <f t="shared" si="1"/>
         <v>0.78030000000000066</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>1.5293880000000004</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1.8735002999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52000000000000024</v>
       </c>
       <c r="B54">
@@ -5482,10 +7636,18 @@
         <f t="shared" si="1"/>
         <v>0.81120000000000081</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>1.5575040000000007</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>1.8690047999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53000000000000025</v>
       </c>
       <c r="B55">
@@ -5496,10 +7658,18 @@
         <f t="shared" si="1"/>
         <v>0.84270000000000078</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>1.5842760000000007</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>1.8615242999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54000000000000026</v>
       </c>
       <c r="B56">
@@ -5510,10 +7680,18 @@
         <f t="shared" si="1"/>
         <v>0.87480000000000091</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>1.6096320000000008</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>1.8510768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.55000000000000027</v>
       </c>
       <c r="B57">
@@ -5524,10 +7702,18 @@
         <f t="shared" si="1"/>
         <v>0.90750000000000086</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>1.6335000000000006</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>1.8376874999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="B58">
@@ -5538,10 +7724,18 @@
         <f t="shared" si="1"/>
         <v>0.94080000000000097</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>1.6558080000000006</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>1.8213887999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57000000000000028</v>
       </c>
       <c r="B59">
@@ -5552,10 +7746,18 @@
         <f t="shared" si="1"/>
         <v>0.9747000000000009</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>1.6764840000000003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>1.8022202999999992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58000000000000029</v>
       </c>
       <c r="B60">
@@ -5566,10 +7768,18 @@
         <f t="shared" si="1"/>
         <v>1.0092000000000012</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>1.6954560000000005</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>1.7802287999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5900000000000003</v>
       </c>
       <c r="B61">
@@ -5580,10 +7790,18 @@
         <f t="shared" si="1"/>
         <v>1.0443000000000011</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>1.7126520000000005</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>1.7554682999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60000000000000031</v>
       </c>
       <c r="B62">
@@ -5594,10 +7812,18 @@
         <f t="shared" si="1"/>
         <v>1.0800000000000012</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>1.7280000000000006</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>1.7279999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="B63">
@@ -5608,10 +7834,18 @@
         <f t="shared" si="1"/>
         <v>1.1163000000000012</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>1.7414280000000004</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>1.6978922999999992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62000000000000033</v>
       </c>
       <c r="B64">
@@ -5622,10 +7856,18 @@
         <f t="shared" si="1"/>
         <v>1.1532000000000013</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>1.7528640000000004</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>1.6652207999999988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63000000000000034</v>
       </c>
       <c r="B65">
@@ -5636,10 +7878,18 @@
         <f t="shared" si="1"/>
         <v>1.1907000000000012</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>1.7622360000000001</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>1.6300682999999987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.64000000000000035</v>
       </c>
       <c r="B66">
@@ -5650,509 +7900,815 @@
         <f t="shared" si="1"/>
         <v>1.2288000000000014</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>1.7694720000000004</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>1.5925247999999987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65000000000000036</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B102" si="3">A67*2</f>
+        <f t="shared" ref="B67:B102" si="5">A67*2</f>
         <v>1.3000000000000007</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C102" si="4">A67^2*3</f>
+        <f t="shared" ref="C67:C102" si="6">A67^2*3</f>
         <v>1.2675000000000014</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="7">A67^2*(1-A67)*12</f>
+        <v>1.7745000000000002</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E102" si="8">A67^2*(1-A67)^2*30</f>
+        <v>1.5526874999999987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
-        <f t="shared" ref="A68:A102" si="5">A67+0.01</f>
+        <f t="shared" ref="A68:A102" si="9">A67+0.01</f>
         <v>0.66000000000000036</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3200000000000007</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3068000000000015</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>1.7772480000000002</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>1.5106607999999986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
+        <f t="shared" si="9"/>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="5"/>
-        <v>0.67000000000000037</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="3"/>
         <v>1.3400000000000007</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3467000000000016</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>1.777644</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>1.4665562999999984</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
+        <f t="shared" si="9"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="5"/>
-        <v>0.68000000000000038</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="3"/>
         <v>1.3600000000000008</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3872000000000015</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>1.7756159999999999</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>1.4204927999999983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
+        <f t="shared" si="9"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="5"/>
-        <v>0.69000000000000039</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="3"/>
         <v>1.3800000000000008</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4283000000000015</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>1.7710919999999997</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>1.3725962999999979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
+        <f t="shared" si="9"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="5"/>
-        <v>0.7000000000000004</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="3"/>
         <v>1.4000000000000008</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4700000000000015</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>1.7639999999999996</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>1.322999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
+        <f t="shared" si="9"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="5"/>
-        <v>0.71000000000000041</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="3"/>
         <v>1.4200000000000008</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5123000000000015</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>1.7542679999999995</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>1.2718442999999977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
+        <f t="shared" si="9"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="5"/>
-        <v>0.72000000000000042</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="3"/>
         <v>1.4400000000000008</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5552000000000019</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>1.7418239999999998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>1.2192767999999978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
+        <f t="shared" si="9"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="5"/>
-        <v>0.73000000000000043</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="3"/>
         <v>1.4600000000000009</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5987000000000018</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>1.7265959999999991</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>1.1654522999999977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
+        <f t="shared" si="9"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="5"/>
-        <v>0.74000000000000044</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="3"/>
         <v>1.4800000000000009</v>
       </c>
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.642800000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>1.7085119999999989</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>1.1105327999999977</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
+        <f t="shared" si="9"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="5"/>
-        <v>0.75000000000000044</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="3"/>
         <v>1.5000000000000009</v>
       </c>
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.687500000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>1.6874999999999991</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>1.0546874999999976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
+        <f t="shared" si="9"/>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="5"/>
-        <v>0.76000000000000045</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="3"/>
         <v>1.5200000000000009</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7328000000000019</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>1.6634879999999987</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>0.99809279999999734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
+        <f t="shared" si="9"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="5"/>
-        <v>0.77000000000000046</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="3"/>
         <v>1.5400000000000009</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7787000000000024</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>1.6364039999999989</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>0.94093229999999739</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
+        <f t="shared" si="9"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="5"/>
-        <v>0.78000000000000047</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="3"/>
         <v>1.5600000000000009</v>
       </c>
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8252000000000022</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="7"/>
+        <v>1.6061759999999987</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>0.88339679999999721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
+        <f t="shared" si="9"/>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="5"/>
-        <v>0.79000000000000048</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="3"/>
         <v>1.580000000000001</v>
       </c>
       <c r="C81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8723000000000023</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="7"/>
+        <v>1.5727319999999985</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>0.82568429999999726</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
+        <f t="shared" si="9"/>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="5"/>
-        <v>0.80000000000000049</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="3"/>
         <v>1.600000000000001</v>
       </c>
       <c r="C82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9200000000000024</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="7"/>
+        <v>1.535999999999998</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="8"/>
+        <v>0.76799999999999724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
+        <f t="shared" si="9"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="5"/>
-        <v>0.8100000000000005</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="3"/>
         <v>1.620000000000001</v>
       </c>
       <c r="C83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9683000000000024</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="7"/>
+        <v>1.4959079999999978</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="8"/>
+        <v>0.71055629999999714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
+        <f t="shared" si="9"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="5"/>
-        <v>0.82000000000000051</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="3"/>
         <v>1.640000000000001</v>
       </c>
       <c r="C84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0172000000000025</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>1.4523839999999975</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>0.65357279999999718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
+        <f t="shared" si="9"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="5"/>
-        <v>0.83000000000000052</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="3"/>
         <v>1.660000000000001</v>
       </c>
       <c r="C85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0667000000000026</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>1.4053559999999974</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>0.5972762999999971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
+        <f t="shared" si="9"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="5"/>
-        <v>0.84000000000000052</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="3"/>
         <v>1.680000000000001</v>
       </c>
       <c r="C86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1168000000000027</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>1.3547519999999973</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>0.54190079999999707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
+        <f t="shared" si="9"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="5"/>
-        <v>0.85000000000000053</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="3"/>
         <v>1.7000000000000011</v>
       </c>
       <c r="C87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1675000000000026</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>1.3004999999999969</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>0.48768749999999716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
+        <f t="shared" si="9"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="5"/>
-        <v>0.86000000000000054</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="3"/>
         <v>1.7200000000000011</v>
       </c>
       <c r="C88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2188000000000025</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>1.2425279999999967</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="8"/>
+        <v>0.43488479999999718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
+        <f t="shared" si="9"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="5"/>
-        <v>0.87000000000000055</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="3"/>
         <v>1.7400000000000011</v>
       </c>
       <c r="C89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2707000000000028</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>1.1807639999999964</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>0.38374829999999721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
+        <f t="shared" si="9"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="5"/>
-        <v>0.88000000000000056</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="3"/>
         <v>1.7600000000000011</v>
       </c>
       <c r="C90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.323200000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>1.1151359999999961</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>0.33454079999999731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
+        <f t="shared" si="9"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="5"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="3"/>
         <v>1.7800000000000011</v>
       </c>
       <c r="C91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3763000000000032</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>1.0455719999999959</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>0.28753229999999741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B92">
         <f t="shared" si="5"/>
-        <v>0.90000000000000058</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="3"/>
         <v>1.8000000000000012</v>
       </c>
       <c r="C92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4300000000000033</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>0.97199999999999576</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>0.2429999999999975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
+        <f t="shared" si="9"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="B93">
         <f t="shared" si="5"/>
-        <v>0.91000000000000059</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="3"/>
         <v>1.8200000000000012</v>
       </c>
       <c r="C93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4843000000000033</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>0.89434799999999526</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>0.20122829999999761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
+        <f t="shared" si="9"/>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="B94">
         <f t="shared" si="5"/>
-        <v>0.9200000000000006</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="3"/>
         <v>1.8400000000000012</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5392000000000032</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>0.81254399999999494</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>0.16250879999999779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
+        <f t="shared" si="9"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="B95">
         <f t="shared" si="5"/>
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="3"/>
         <v>1.8600000000000012</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5947000000000031</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>0.72651599999999461</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>0.12714029999999799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
+        <f t="shared" si="9"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="B96">
         <f t="shared" si="5"/>
-        <v>0.94000000000000061</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="3"/>
         <v>1.8800000000000012</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6508000000000034</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>0.63619199999999432</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>9.5428799999998176E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
+        <f t="shared" si="9"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="B97">
         <f t="shared" si="5"/>
-        <v>0.95000000000000062</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="3"/>
         <v>1.9000000000000012</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7075000000000036</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>0.54149999999999399</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>6.7687499999998416E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
+        <f t="shared" si="9"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="B98">
         <f t="shared" si="5"/>
-        <v>0.96000000000000063</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="3"/>
         <v>1.9200000000000013</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7648000000000037</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>0.4423679999999936</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>4.4236799999998667E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
+        <f t="shared" si="9"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="B99">
         <f t="shared" si="5"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="3"/>
         <v>1.9400000000000013</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8227000000000038</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>0.33872399999999325</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>2.540429999999895E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
+        <f t="shared" si="9"/>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="B100">
         <f t="shared" si="5"/>
-        <v>0.98000000000000065</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="3"/>
         <v>1.9600000000000013</v>
       </c>
       <c r="C100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8812000000000038</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>0.23049599999999282</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>1.1524799999999268E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
+        <f t="shared" si="9"/>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="B101">
         <f t="shared" si="5"/>
-        <v>0.99000000000000066</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="3"/>
         <v>1.9800000000000013</v>
       </c>
       <c r="C101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9403000000000041</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>0.11761199999999243</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>2.9402999999996174E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B102">
         <f t="shared" si="5"/>
-        <v>1.0000000000000007</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="3"/>
         <v>2.0000000000000013</v>
       </c>
       <c r="C102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.000000000000004</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>-7.9936057773011381E-15</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>1.3312027775604594E-29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="D108">
+        <f>1/(SUM(D2:D102)*0.01)</f>
+        <v>1.0001000100010011</v>
+      </c>
+      <c r="E108">
+        <f>1/(SUM(E2:E102)*0.01)</f>
+        <v>1.0000000100000008</v>
       </c>
     </row>
   </sheetData>

--- a/machine_learning_and_stats/misc/bayes_experiment.xlsx
+++ b/machine_learning_and_stats/misc/bayes_experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BF3F8-5736-4B25-AE73-BC7234F73182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085E418-C677-4E5B-9628-BFA84D510428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>成功</t>
     <rPh sb="0" eb="2">
@@ -49,6 +49,10 @@
     <rPh sb="0" eb="2">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｄ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3440,7 +3444,7 @@
         <c:axId val="1835107424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
+          <c:max val="2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4363,7 +4367,7 @@
         <c:axId val="1835107424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
+          <c:max val="2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6455,10 +6459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -7161,7 +7165,7 @@
         <v>1.3230000000000008</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:18">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>0.31000000000000011</v>
@@ -7183,7 +7187,7 @@
         <v>1.372596300000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:18">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>0.32000000000000012</v>
@@ -7205,7 +7209,7 @@
         <v>1.4204928000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:18">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>0.33000000000000013</v>
@@ -7227,7 +7231,7 @@
         <v>1.4665563000000008</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:18">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>0.34000000000000014</v>
@@ -7249,7 +7253,7 @@
         <v>1.5106608000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:18">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>0.35000000000000014</v>
@@ -7271,7 +7275,7 @@
         <v>1.5526875000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:18">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>0.36000000000000015</v>
@@ -7293,7 +7297,7 @@
         <v>1.5925248000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:18">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>0.37000000000000016</v>
@@ -7315,7 +7319,7 @@
         <v>1.6300683000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:18">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>0.38000000000000017</v>
@@ -7337,7 +7341,7 @@
         <v>1.6652208000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:18">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>0.39000000000000018</v>
@@ -7359,7 +7363,7 @@
         <v>1.697892300000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:18">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>0.40000000000000019</v>
@@ -7381,7 +7385,7 @@
         <v>1.7280000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:18">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>0.4100000000000002</v>
@@ -7403,7 +7407,7 @@
         <v>1.7554683000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:18">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>0.42000000000000021</v>
@@ -7425,7 +7429,7 @@
         <v>1.7802288000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:18">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>0.43000000000000022</v>
@@ -7447,7 +7451,7 @@
         <v>1.8022203000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:18">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>0.44000000000000022</v>
@@ -7469,7 +7473,7 @@
         <v>1.8213888000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:18">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>0.45000000000000023</v>
@@ -7490,8 +7494,11 @@
         <f t="shared" si="3"/>
         <v>1.8376875000000008</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="R47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>0.46000000000000024</v>
